--- a/Retirement Savings.xlsx
+++ b/Retirement Savings.xlsx
@@ -18,7 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Retirement Savings'!$A$1:$E$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Retirement Savings'!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Geometric Gradient Series </t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Cash Balance</t>
+  </si>
+  <si>
+    <t>Pension Present Worth</t>
+  </si>
+  <si>
+    <t>Extra Savings</t>
   </si>
 </sst>
 </file>
@@ -223,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -270,6 +276,12 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +497,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Retirement Savings'!$A$10:$A$35</c:f>
+              <c:f>'Retirement Savings'!$A$12:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -572,7 +584,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Retirement Savings'!$C$10:$C$35</c:f>
+              <c:f>'Retirement Savings'!$C$12:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1910,13 +1922,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>43296</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>36666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2623983</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2180,15 +2192,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table5" displayName="Table5" ref="A9:C35" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="A9:C35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table5" displayName="Table5" ref="A11:C37" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="A11:C37"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Period" dataDxfId="2"/>
     <tableColumn id="2" name="Deposit" dataDxfId="1">
-      <calculatedColumnFormula>B9*(1+$E$4)</calculatedColumnFormula>
+      <calculatedColumnFormula>B11*(1+$E$4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Cash Balance" dataDxfId="0">
-      <calculatedColumnFormula>C9*(1+$E$5)+'Retirement Savings'!$B10</calculatedColumnFormula>
+      <calculatedColumnFormula>C11*(1+$E$5)+'Retirement Savings'!$B12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2492,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,433 +2592,457 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="21">
+        <f>PV(E5,E6,-E3)</f>
+        <v>582679.15891268593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6">
+        <f>E7-E8</f>
+        <v>357488.05943960382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>0</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B12" s="14">
         <f>-E7</f>
         <v>-940167.21835228975</v>
       </c>
-      <c r="C10" s="14">
-        <f>'Retirement Savings'!$B10</f>
+      <c r="C12" s="14">
+        <f>'Retirement Savings'!$B12</f>
         <v>-940167.21835228975</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>1</v>
-      </c>
-      <c r="B11" s="14">
-        <v>50000</v>
-      </c>
-      <c r="C11" s="14">
-        <f>C10*(1+$E$5)+'Retirement Savings'!$B11</f>
-        <v>-955978.92363695009</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>2</v>
-      </c>
-      <c r="B12" s="14">
-        <f>B11*(1+$E$4)</f>
-        <v>52500</v>
-      </c>
-      <c r="C12" s="14">
-        <f>C11*(1+$E$5)+'Retirement Savings'!$B12</f>
-        <v>-970397.44829153665</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="14">
-        <f t="shared" ref="B13:B35" si="0">B12*(1+$E$4)</f>
-        <v>55125</v>
+        <v>50000</v>
       </c>
       <c r="C13" s="14">
         <f>C12*(1+$E$5)+'Retirement Savings'!$B13</f>
-        <v>-983200.26967194432</v>
+        <v>-955978.92363695009</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
+        <v>2</v>
+      </c>
+      <c r="B14" s="14">
+        <f>B13*(1+$E$4)</f>
+        <v>52500</v>
+      </c>
+      <c r="C14" s="14">
+        <f>C13*(1+$E$5)+'Retirement Savings'!$B14</f>
+        <v>-970397.44829153665</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>3</v>
+      </c>
+      <c r="B15" s="14">
+        <f t="shared" ref="B15:B37" si="0">B14*(1+$E$4)</f>
+        <v>55125</v>
+      </c>
+      <c r="C15" s="14">
+        <f>C14*(1+$E$5)+'Retirement Savings'!$B15</f>
+        <v>-983200.26967194432</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <v>4</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B16" s="14">
         <f t="shared" si="0"/>
         <v>57881.25</v>
       </c>
-      <c r="C14" s="14">
-        <f>C13*(1+$E$5)+'Retirement Savings'!$B14</f>
+      <c r="C16" s="14">
+        <f>C15*(1+$E$5)+'Retirement Savings'!$B16</f>
         <v>-994143.03854898037</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
         <v>5</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B17" s="14">
         <f t="shared" si="0"/>
         <v>60775.3125</v>
       </c>
-      <c r="C15" s="14">
-        <f>C14*(1+$E$5)+'Retirement Savings'!$B15</f>
+      <c r="C17" s="14">
+        <f>C16*(1+$E$5)+'Retirement Savings'!$B17</f>
         <v>-1002957.7387474091</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
         <v>6</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B18" s="14">
         <f t="shared" si="0"/>
         <v>63814.078125</v>
       </c>
-      <c r="C16" s="14">
-        <f>C15*(1+$E$5)+'Retirement Savings'!$B16</f>
+      <c r="C18" s="14">
+        <f>C17*(1+$E$5)+'Retirement Savings'!$B18</f>
         <v>-1009350.7023347279</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>7</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B19" s="14">
         <f t="shared" si="0"/>
         <v>67004.782031249997</v>
       </c>
-      <c r="C17" s="14">
-        <f>C16*(1+$E$5)+'Retirement Savings'!$B17</f>
+      <c r="C19" s="14">
+        <f>C18*(1+$E$5)+'Retirement Savings'!$B19</f>
         <v>-1013000.4694669088</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>8</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B20" s="14">
         <f t="shared" si="0"/>
         <v>70355.021132812501</v>
       </c>
-      <c r="C18" s="14">
-        <f>C17*(1+$E$5)+'Retirement Savings'!$B18</f>
+      <c r="C20" s="14">
+        <f>C19*(1+$E$5)+'Retirement Savings'!$B20</f>
         <v>-1013555.4811967801</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
         <v>9</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B21" s="14">
         <f t="shared" si="0"/>
         <v>73872.772189453128</v>
       </c>
-      <c r="C19" s="14">
-        <f>C18*(1+$E$5)+'Retirement Savings'!$B19</f>
+      <c r="C21" s="14">
+        <f>C20*(1+$E$5)+'Retirement Savings'!$B21</f>
         <v>-1010631.5926911017</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
         <v>10</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B22" s="14">
         <f t="shared" si="0"/>
         <v>77566.41079892579</v>
       </c>
-      <c r="C20" s="14">
-        <f>C19*(1+$E$5)+'Retirement Savings'!$B20</f>
+      <c r="C22" s="14">
+        <f>C21*(1+$E$5)+'Retirement Savings'!$B22</f>
         <v>-1003809.3933805531</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
         <v>11</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B23" s="14">
         <f t="shared" si="0"/>
         <v>81444.73133887208</v>
       </c>
-      <c r="C21" s="14">
-        <f>C20*(1+$E$5)+'Retirement Savings'!$B21</f>
+      <c r="C23" s="14">
+        <f>C22*(1+$E$5)+'Retirement Savings'!$B23</f>
         <v>-992631.31957831979</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
         <v>12</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B24" s="14">
         <f t="shared" si="0"/>
         <v>85516.967905815691</v>
       </c>
-      <c r="C22" s="14">
-        <f>C21*(1+$E$5)+'Retirement Savings'!$B22</f>
+      <c r="C24" s="14">
+        <f>C23*(1+$E$5)+'Retirement Savings'!$B24</f>
         <v>-976598.54404298658</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <v>13</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B25" s="14">
         <f t="shared" si="0"/>
         <v>89792.816301106475</v>
       </c>
-      <c r="C23" s="14">
-        <f>C22*(1+$E$5)+'Retirement Savings'!$B23</f>
+      <c r="C25" s="14">
+        <f>C24*(1+$E$5)+'Retirement Savings'!$B25</f>
         <v>-955167.62582488928</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
         <v>14</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B26" s="14">
         <f t="shared" si="0"/>
         <v>94282.457116161808</v>
       </c>
-      <c r="C24" s="14">
-        <f>C23*(1+$E$5)+'Retirement Savings'!$B24</f>
+      <c r="C26" s="14">
+        <f>C25*(1+$E$5)+'Retirement Savings'!$B26</f>
         <v>-927746.90251646983</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
         <v>15</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B27" s="14">
         <f t="shared" si="0"/>
         <v>98996.579971969899</v>
       </c>
-      <c r="C25" s="14">
-        <f>C24*(1+$E$5)+'Retirement Savings'!$B25</f>
+      <c r="C27" s="14">
+        <f>C26*(1+$E$5)+'Retirement Savings'!$B27</f>
         <v>-893692.60572065285</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
         <v>16</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B28" s="14">
         <f t="shared" si="0"/>
         <v>103946.4089705684</v>
       </c>
-      <c r="C26" s="14">
-        <f>C25*(1+$E$5)+'Retirement Savings'!$B26</f>
+      <c r="C28" s="14">
+        <f>C27*(1+$E$5)+'Retirement Savings'!$B28</f>
         <v>-852304.67915053014</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <v>17</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B29" s="14">
         <f t="shared" si="0"/>
         <v>109143.72941909682</v>
       </c>
-      <c r="C27" s="14">
-        <f>C26*(1+$E$5)+'Retirement Savings'!$B27</f>
+      <c r="C29" s="14">
+        <f>C28*(1+$E$5)+'Retirement Savings'!$B29</f>
         <v>-802822.27727197041</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
         <v>18</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B30" s="14">
         <f t="shared" si="0"/>
         <v>114600.91589005166</v>
       </c>
-      <c r="C28" s="14">
-        <f>C27*(1+$E$5)+'Retirement Savings'!$B28</f>
+      <c r="C30" s="14">
+        <f>C29*(1+$E$5)+'Retirement Savings'!$B30</f>
         <v>-744418.9207909567</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
         <v>19</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B31" s="14">
         <f t="shared" si="0"/>
         <v>120330.96168455425</v>
       </c>
-      <c r="C29" s="14">
-        <f>C28*(1+$E$5)+'Retirement Savings'!$B29</f>
+      <c r="C31" s="14">
+        <f>C30*(1+$E$5)+'Retirement Savings'!$B31</f>
         <v>-676197.28356176952</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
         <v>20</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B32" s="14">
         <f t="shared" si="0"/>
         <v>126347.50976878197</v>
       </c>
-      <c r="C30" s="14">
-        <f>C29*(1+$E$5)+'Retirement Savings'!$B30</f>
+      <c r="C32" s="14">
+        <f>C31*(1+$E$5)+'Retirement Savings'!$B32</f>
         <v>-597183.58364231151</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
         <v>21</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B33" s="14">
         <f t="shared" si="0"/>
         <v>132664.88525722106</v>
       </c>
-      <c r="C31" s="14">
-        <f>C30*(1+$E$5)+'Retirement Savings'!$B31</f>
+      <c r="C33" s="14">
+        <f>C32*(1+$E$5)+'Retirement Savings'!$B33</f>
         <v>-506321.54924005235</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
         <v>22</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B34" s="14">
         <f t="shared" si="0"/>
         <v>139298.12952008212</v>
       </c>
-      <c r="C32" s="14">
-        <f>C31*(1+$E$5)+'Retirement Savings'!$B32</f>
+      <c r="C34" s="14">
+        <f>C33*(1+$E$5)+'Retirement Savings'!$B34</f>
         <v>-402465.92816677387</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
         <v>23</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B35" s="14">
         <f t="shared" si="0"/>
         <v>146263.03599608623</v>
       </c>
-      <c r="C33" s="14">
-        <f>C32*(1+$E$5)+'Retirement Savings'!$B33</f>
+      <c r="C35" s="14">
+        <f>C34*(1+$E$5)+'Retirement Savings'!$B35</f>
         <v>-284375.50714236184</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
         <v>24</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B36" s="14">
         <f t="shared" si="0"/>
         <v>153576.18779589055</v>
       </c>
-      <c r="C34" s="14">
-        <f>C33*(1+$E$5)+'Retirement Savings'!$B34</f>
+      <c r="C36" s="14">
+        <f>C35*(1+$E$5)+'Retirement Savings'!$B36</f>
         <v>-150705.60484643665</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
         <v>25</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B37" s="14">
         <f t="shared" si="0"/>
         <v>161254.99718568509</v>
       </c>
-      <c r="C35" s="14">
-        <f>C34*(1+$E$5)+'Retirement Savings'!$B35</f>
+      <c r="C37" s="14">
+        <f>C36*(1+$E$5)+'Retirement Savings'!$B37</f>
         <v>-2.1245796233415604E-9</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:C7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A38:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B10:B11" calculatedColumn="1"/>
+    <ignoredError sqref="B12:B13" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">
